--- a/clean/name/08002C.xlsx
+++ b/clean/name/08002C.xlsx
@@ -560,6 +560,11 @@
           <t>MCV</t>
         </is>
       </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>WBC</t>
+        </is>
+      </c>
       <c r="D11">
         <v>96288</v>
       </c>
@@ -1135,6 +1140,11 @@
           <t>MCV 平均血球容積</t>
         </is>
       </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>WBC</t>
+        </is>
+      </c>
       <c r="D46">
         <v>7846</v>
       </c>
@@ -1330,6 +1340,11 @@
           <t>MCV平均紅血球容積</t>
         </is>
       </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>WBC</t>
+        </is>
+      </c>
       <c r="D58">
         <v>7361</v>
       </c>
@@ -1480,6 +1495,11 @@
           <t>MCV (平均紅血球容積)</t>
         </is>
       </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>WBC</t>
+        </is>
+      </c>
       <c r="D67">
         <v>4328</v>
       </c>
@@ -2160,6 +2180,11 @@
           <t>MCV均血球容積</t>
         </is>
       </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>WBC</t>
+        </is>
+      </c>
       <c r="D110">
         <v>2187</v>
       </c>
@@ -2845,6 +2870,11 @@
           <t>MCV(平均紅血球容積)</t>
         </is>
       </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>WBC</t>
+        </is>
+      </c>
       <c r="D153">
         <v>1165</v>
       </c>
@@ -3315,6 +3345,11 @@
           <t>平均紅血球容積 MCV</t>
         </is>
       </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>WBC</t>
+        </is>
+      </c>
       <c r="D183">
         <v>941</v>
       </c>
@@ -3405,6 +3440,11 @@
           <t>MCV 平均血球容積 (全血)</t>
         </is>
       </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>WBC</t>
+        </is>
+      </c>
       <c r="D189">
         <v>849</v>
       </c>
@@ -4160,6 +4200,11 @@
           <t>MCV 平均紅血球容積</t>
         </is>
       </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>WBC</t>
+        </is>
+      </c>
       <c r="D238">
         <v>359</v>
       </c>
@@ -4330,6 +4375,11 @@
           <t>平均血球容積MCV</t>
         </is>
       </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>WBC</t>
+        </is>
+      </c>
       <c r="D249">
         <v>318</v>
       </c>
@@ -4585,6 +4635,11 @@
           <t>紅血球平均體積值 MCV</t>
         </is>
       </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>WBC</t>
+        </is>
+      </c>
       <c r="D265">
         <v>213</v>
       </c>
@@ -4990,6 +5045,11 @@
           <t>MCV平均血球容積</t>
         </is>
       </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>WBC</t>
+        </is>
+      </c>
       <c r="D291">
         <v>128</v>
       </c>
@@ -5895,6 +5955,11 @@
           <t>MCV平均血紅素容積</t>
         </is>
       </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>WBC</t>
+        </is>
+      </c>
       <c r="D350">
         <v>44</v>
       </c>
@@ -7020,6 +7085,11 @@
           <t>MCV(平均紅血球體積 )</t>
         </is>
       </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>WBC</t>
+        </is>
+      </c>
       <c r="D423">
         <v>26</v>
       </c>
@@ -7660,6 +7730,11 @@
           <t>平均紅血球容積MCV</t>
         </is>
       </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>WBC</t>
+        </is>
+      </c>
       <c r="D464">
         <v>10</v>
       </c>
@@ -7863,6 +7938,11 @@
       <c r="B477" t="inlineStr">
         <is>
           <t>平均血球容積(MCV)</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>WBC</t>
         </is>
       </c>
       <c r="D477">
